--- a/data/outputs/management/63.xlsx
+++ b/data/outputs/management/63.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ49"/>
+  <dimension ref="A1:BR49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -925,6 +930,11 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>4792231</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1126,6 +1136,11 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>6301297</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1327,6 +1342,11 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>6301540</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1532,6 +1552,11 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>4558481</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1729,6 +1754,11 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>4774377</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1938,6 +1968,11 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr">
+        <is>
+          <t>6301235</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2155,6 +2190,11 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr">
+        <is>
+          <t>4858696</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2356,6 +2396,11 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr">
+        <is>
+          <t>6302110</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2553,6 +2598,11 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr">
+        <is>
+          <t>4647391</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2762,6 +2812,11 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr">
+        <is>
+          <t>4591117</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2963,6 +3018,11 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr">
+        <is>
+          <t>4234620</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3164,6 +3224,11 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr">
+        <is>
+          <t>4735307</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3369,6 +3434,11 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr">
+        <is>
+          <t>4757218</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3586,6 +3656,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3787,6 +3858,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3996,6 +4068,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4213,6 +4286,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4418,6 +4492,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4635,6 +4710,11 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr">
+        <is>
+          <t>4415276</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4848,6 +4928,11 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr">
+        <is>
+          <t>4648745</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5049,6 +5134,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5266,6 +5352,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5467,6 +5554,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5668,6 +5756,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5873,6 +5962,11 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr">
+        <is>
+          <t>4251909</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6054,6 +6148,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6243,6 +6338,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6440,6 +6536,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6641,6 +6738,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6846,6 +6944,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7047,6 +7146,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7260,6 +7360,11 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr">
+        <is>
+          <t>3034162</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7469,6 +7574,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7658,6 +7764,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7859,6 +7966,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8076,6 +8184,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8281,6 +8390,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8490,6 +8600,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8691,6 +8802,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8908,6 +9020,11 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr">
+        <is>
+          <t>2841046</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9117,6 +9234,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9326,6 +9444,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9543,6 +9662,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9744,6 +9864,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9953,6 +10074,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10158,6 +10280,11 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr">
+        <is>
+          <t>2531347</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10375,6 +10502,11 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr">
+        <is>
+          <t>2584382</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10576,6 +10708,11 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr">
+        <is>
+          <t>15802504</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
